--- a/biology/Zoologie/Cyprinus/Cyprinus.xlsx
+++ b/biology/Zoologie/Cyprinus/Cyprinus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyprinus est un genre de poissons téléostéens de l'ordre des Cypriniformes et de la famille des Cyprinidae.
 Hormis Cyprinus carpio, les autres espèces de carpes typiques se rencontrent généralement dans des zones plus restreintes de l'Asie orientale, centrées sur la région du Yunnan. Dans certains cas, elles sont endémiques à un seul lac, notamment le lac Erhai, ainsi que les lac Dian, Lac Jilu, lac Qilihu, et lac Xingyun ; à proprement parler le genre est principalement localisé dans le Yunnan. Une espèce dernièrement nommée, Cyprinus yilongensis, était apparemment endémique ; si oui, elle a probablement aujourd'hui disparu.
@@ -512,9 +524,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon FishBase                                           (23 août 2015)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon FishBase                                           (23 août 2015) :
 Cyprinus acutidorsalis Wang, 1979
 Cyprinus barbatus Chen &amp; Huang, 1977
 Cyprinus carpio Linnaeus, 1758 - Carpe commune
@@ -538,9 +552,43 @@
 Cyprinus quidatensis Nguyen, Le, Le &amp; Nguyen, 1999
 Cyprinus rubrofuscus Lacepède, 1803
 Cyprinus yilongensis Yang et al., 1977 † - probablement éteint †
-Cyprinus yunnanensis Tchang, 1933
-Espèce fossile
-Cyprinus priscus von Meyer † - (Espèces fossiles du Miocène allemand)</t>
+Cyprinus yunnanensis Tchang, 1933</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cyprinus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cyprinus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Espèce fossile</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Cyprinus priscus von Meyer † - (Espèces fossiles du Miocène allemand)</t>
         </is>
       </c>
     </row>
